--- a/xls/WordConfig.xlsx
+++ b/xls/WordConfig.xlsx
@@ -429,7 +429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
